--- a/Schools.xlsx
+++ b/Schools.xlsx
@@ -3,15 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16540" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16440" windowWidth="28800" xWindow="0" yWindow="500"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="test" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="451 clear blue way mcdono test" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1618 lake sims parkway oc test" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="1618 lake sims parkway oc" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="451 clear blue way mcdono" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="451 clear blue way mcdono" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -989,7 +986,7 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1524,7 +1521,7 @@
       </c>
       <c r="B3" s="20" t="inlineStr">
         <is>
-          <t>3/10</t>
+          <t>5/10</t>
         </is>
       </c>
       <c r="C3" s="22" t="n"/>
@@ -1576,7 +1573,7 @@
       </c>
       <c r="B7" s="20" t="inlineStr">
         <is>
-          <t>7/10</t>
+          <t>8/10</t>
         </is>
       </c>
       <c r="C7" s="22" t="n"/>
@@ -1636,7 +1633,7 @@
       </c>
       <c r="B11" s="20" t="inlineStr">
         <is>
-          <t>Henry County Middle School</t>
+          <t>McDonough Middle School</t>
         </is>
       </c>
       <c r="C11" s="22" t="n"/>
@@ -1662,1390 +1659,7 @@
       </c>
       <c r="B13" s="20" t="inlineStr">
         <is>
-          <t>Henry County High School</t>
-        </is>
-      </c>
-      <c r="C13" s="22" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="19" t="inlineStr">
-        <is>
-          <t>school - high link</t>
-        </is>
-      </c>
-      <c r="B14" s="20" t="inlineStr">
-        <is>
-          <t>https://www.schooldigger.com/go/GA/schools/0282001208/school.aspx</t>
-        </is>
-      </c>
-      <c r="C14" s="22" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Home Facts </t>
-        </is>
-      </c>
-      <c r="B15" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C15" s="18" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary name</t>
-        </is>
-      </c>
-      <c r="B16" s="20" t="inlineStr">
-        <is>
-          <t>East Lake Elementary School</t>
-        </is>
-      </c>
-      <c r="C16" s="21" t="inlineStr">
-        <is>
-          <t>https://www.homefacts.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary link</t>
-        </is>
-      </c>
-      <c r="B17" s="20" t="inlineStr">
-        <is>
-          <t>text-center school_badges_big grade_big_B_Plus</t>
-        </is>
-      </c>
-      <c r="C17" s="22" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="19" t="inlineStr">
-        <is>
-          <t>school - middle name</t>
-        </is>
-      </c>
-      <c r="B18" s="20" t="inlineStr">
-        <is>
-          <t>Union Grove Middle School</t>
-        </is>
-      </c>
-      <c r="C18" s="22" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="19" t="inlineStr">
-        <is>
-          <t>school - middle link</t>
-        </is>
-      </c>
-      <c r="B19" s="20" t="inlineStr">
-        <is>
-          <t>text-center school_badges_big grade_big_B_Plus</t>
-        </is>
-      </c>
-      <c r="C19" s="22" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="19" t="inlineStr">
-        <is>
-          <t>school - high name</t>
-        </is>
-      </c>
-      <c r="B20" s="20" t="inlineStr">
-        <is>
-          <t>Ola High School</t>
-        </is>
-      </c>
-      <c r="C20" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="21" s="16">
-      <c r="A21" s="19" t="inlineStr">
-        <is>
-          <t>school - high link</t>
-        </is>
-      </c>
-      <c r="B21" s="20" t="inlineStr">
-        <is>
-          <t>text-center school_badges_big grade_big_A_Minus</t>
-        </is>
-      </c>
-      <c r="C21" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="22" s="16">
-      <c r="A22" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Niche </t>
-        </is>
-      </c>
-      <c r="B22" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C22" s="18" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="23" s="16">
-      <c r="A23" s="19" t="inlineStr">
-        <is>
-          <t>link - County Schools</t>
-        </is>
-      </c>
-      <c r="B23" s="24" t="inlineStr">
-        <is>
-          <t>Cant be activated at this moment , cant automate the searches ,have different xpaths all the time</t>
-        </is>
-      </c>
-      <c r="C23" s="21" t="inlineStr">
-        <is>
-          <t>https://www.niche.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="19" t="inlineStr">
-        <is>
-          <t>name - global</t>
-        </is>
-      </c>
-      <c r="B24" s="25" t="n"/>
-      <c r="C24" s="23" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">rank - School Districts </t>
-        </is>
-      </c>
-      <c r="B25" s="25" t="n"/>
-      <c r="C25" s="21" t="inlineStr">
-        <is>
-          <t>https://www.niche.com/k12/d/henry-county-schools-ga/</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="19" t="inlineStr">
-        <is>
-          <t>grade - overall niche grade</t>
-        </is>
-      </c>
-      <c r="B26" s="25" t="n"/>
-      <c r="C26" s="22" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="19" t="inlineStr">
-        <is>
-          <t>link - all ranks state county schools/metropolitan/national</t>
-        </is>
-      </c>
-      <c r="B27" s="26" t="n"/>
-      <c r="C27" s="22" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="18" t="inlineStr">
-        <is>
-          <t>Info</t>
-        </is>
-      </c>
-      <c r="B28" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C28" s="18" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="19" t="inlineStr">
-        <is>
-          <t>Street</t>
-        </is>
-      </c>
-      <c r="B29" s="22" t="inlineStr">
-        <is>
-          <t>451 clear blue way</t>
-        </is>
-      </c>
-      <c r="C29" s="22" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="19" t="inlineStr">
-        <is>
-          <t>City</t>
-        </is>
-      </c>
-      <c r="B30" s="22" t="inlineStr">
-        <is>
-          <t>mcdonough</t>
-        </is>
-      </c>
-      <c r="C30" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="31" s="16">
-      <c r="A31" s="22" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="B31" s="22" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="C31" s="22" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B23:B27"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2"/>
-    <hyperlink ref="C16" r:id="rId3"/>
-    <hyperlink ref="C23" r:id="rId4"/>
-    <hyperlink ref="C25" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="16" width="50.83203125"/>
-    <col customWidth="1" max="2" min="2" style="16" width="123.6640625"/>
-    <col customWidth="1" max="3" min="3" style="16" width="53.1640625"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>Greatschools</t>
-        </is>
-      </c>
-      <c r="B1" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C1" s="18" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary name</t>
-        </is>
-      </c>
-      <c r="B2" s="20" t="inlineStr">
-        <is>
-          <t>Clarcona Elementary School</t>
-        </is>
-      </c>
-      <c r="C2" s="21" t="inlineStr">
-        <is>
-          <t>https://www.greatschools.org/</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary link</t>
-        </is>
-      </c>
-      <c r="B3" s="20" t="inlineStr">
-        <is>
-          <t>4/10</t>
-        </is>
-      </c>
-      <c r="C3" s="22" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="19" t="inlineStr">
-        <is>
-          <t>school - middle name</t>
-        </is>
-      </c>
-      <c r="B4" s="20" t="inlineStr">
-        <is>
-          <t>Ocoee Middle School</t>
-        </is>
-      </c>
-      <c r="C4" s="22" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="19" t="inlineStr">
-        <is>
-          <t>school - middle link</t>
-        </is>
-      </c>
-      <c r="B5" s="20" t="inlineStr">
-        <is>
-          <t>4/10</t>
-        </is>
-      </c>
-      <c r="C5" s="22" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="19" t="inlineStr">
-        <is>
-          <t>school - high name</t>
-        </is>
-      </c>
-      <c r="B6" s="20" t="inlineStr">
-        <is>
-          <t>Ocoee High School</t>
-        </is>
-      </c>
-      <c r="C6" s="22" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="19" t="inlineStr">
-        <is>
-          <t>school - high link</t>
-        </is>
-      </c>
-      <c r="B7" s="20" t="inlineStr">
-        <is>
-          <t>4/10</t>
-        </is>
-      </c>
-      <c r="C7" s="22" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="18" t="inlineStr">
-        <is>
-          <t>School digger</t>
-        </is>
-      </c>
-      <c r="B8" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C8" s="18" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary name</t>
-        </is>
-      </c>
-      <c r="B9" s="20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C9" s="21" t="inlineStr">
-        <is>
-          <t>https://www.schooldigger.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary link</t>
-        </is>
-      </c>
-      <c r="B10" s="20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C10" s="22" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="19" t="inlineStr">
-        <is>
-          <t>school - middle name</t>
-        </is>
-      </c>
-      <c r="B11" s="20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C11" s="22" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="19" t="inlineStr">
-        <is>
-          <t>school - middle link</t>
-        </is>
-      </c>
-      <c r="B12" s="20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C12" s="22" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="19" t="inlineStr">
-        <is>
-          <t>school - high name</t>
-        </is>
-      </c>
-      <c r="B13" s="20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C13" s="22" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="19" t="inlineStr">
-        <is>
-          <t>school - high link</t>
-        </is>
-      </c>
-      <c r="B14" s="20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C14" s="22" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Home Facts </t>
-        </is>
-      </c>
-      <c r="B15" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C15" s="18" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary name</t>
-        </is>
-      </c>
-      <c r="B16" s="20" t="inlineStr">
-        <is>
-          <t>Thornebrooke Elementary School</t>
-        </is>
-      </c>
-      <c r="C16" s="21" t="inlineStr">
-        <is>
-          <t>https://www.homefacts.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary link</t>
-        </is>
-      </c>
-      <c r="B17" s="20" t="inlineStr">
-        <is>
-          <t>text-center school_badges_big grade_big_A</t>
-        </is>
-      </c>
-      <c r="C17" s="22" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="19" t="inlineStr">
-        <is>
-          <t>school - middle name</t>
-        </is>
-      </c>
-      <c r="B18" s="20" t="inlineStr">
-        <is>
-          <t>Ocoee Middle School</t>
-        </is>
-      </c>
-      <c r="C18" s="22" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="19" t="inlineStr">
-        <is>
-          <t>school - middle link</t>
-        </is>
-      </c>
-      <c r="B19" s="20" t="inlineStr">
-        <is>
-          <t>text-center school_badges_big grade_big_C</t>
-        </is>
-      </c>
-      <c r="C19" s="22" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="19" t="inlineStr">
-        <is>
-          <t>school - high name</t>
-        </is>
-      </c>
-      <c r="B20" s="20" t="inlineStr">
-        <is>
-          <t>Legacy High Charter School</t>
-        </is>
-      </c>
-      <c r="C20" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="21" s="16">
-      <c r="A21" s="19" t="inlineStr">
-        <is>
-          <t>school - high link</t>
-        </is>
-      </c>
-      <c r="B21" s="20" t="inlineStr">
-        <is>
-          <t>text-center school_badges_big grade_big_A</t>
-        </is>
-      </c>
-      <c r="C21" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="22" s="16">
-      <c r="A22" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Niche </t>
-        </is>
-      </c>
-      <c r="B22" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C22" s="18" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="23" s="16">
-      <c r="A23" s="19" t="inlineStr">
-        <is>
-          <t>link - County Schools</t>
-        </is>
-      </c>
-      <c r="B23" s="24" t="inlineStr">
-        <is>
-          <t>Cant be activated at this moment , cant automate the searches ,have different xpaths all the time</t>
-        </is>
-      </c>
-      <c r="C23" s="21" t="inlineStr">
-        <is>
-          <t>https://www.niche.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="19" t="inlineStr">
-        <is>
-          <t>name - global</t>
-        </is>
-      </c>
-      <c r="B24" s="25" t="n"/>
-      <c r="C24" s="23" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">rank - School Districts </t>
-        </is>
-      </c>
-      <c r="B25" s="25" t="n"/>
-      <c r="C25" s="21" t="inlineStr">
-        <is>
-          <t>https://www.niche.com/k12/d/henry-county-schools-ga/</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="19" t="inlineStr">
-        <is>
-          <t>grade - overall niche grade</t>
-        </is>
-      </c>
-      <c r="B26" s="25" t="n"/>
-      <c r="C26" s="22" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="19" t="inlineStr">
-        <is>
-          <t>link - all ranks state county schools/metropolitan/national</t>
-        </is>
-      </c>
-      <c r="B27" s="26" t="n"/>
-      <c r="C27" s="22" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="18" t="inlineStr">
-        <is>
-          <t>Info</t>
-        </is>
-      </c>
-      <c r="B28" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C28" s="18" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="19" t="inlineStr">
-        <is>
-          <t>Street</t>
-        </is>
-      </c>
-      <c r="B29" s="22" t="inlineStr">
-        <is>
-          <t>1618 Lake Sims Parkway</t>
-        </is>
-      </c>
-      <c r="C29" s="22" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="19" t="inlineStr">
-        <is>
-          <t>City</t>
-        </is>
-      </c>
-      <c r="B30" s="22" t="inlineStr">
-        <is>
-          <t>Ocoee</t>
-        </is>
-      </c>
-      <c r="C30" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="31" s="16">
-      <c r="A31" s="22" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="B31" s="22" t="inlineStr">
-        <is>
-          <t>Florida</t>
-        </is>
-      </c>
-      <c r="C31" s="22" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B23:B27"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2"/>
-    <hyperlink ref="C16" r:id="rId3"/>
-    <hyperlink ref="C23" r:id="rId4"/>
-    <hyperlink ref="C25" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="16" width="50.83203125"/>
-    <col customWidth="1" max="2" min="2" style="16" width="123.6640625"/>
-    <col customWidth="1" max="3" min="3" style="16" width="53.1640625"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>Greatschools</t>
-        </is>
-      </c>
-      <c r="B1" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C1" s="18" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary name</t>
-        </is>
-      </c>
-      <c r="B2" s="20" t="inlineStr">
-        <is>
-          <t>Clarcona Elementary School</t>
-        </is>
-      </c>
-      <c r="C2" s="21" t="inlineStr">
-        <is>
-          <t>https://www.greatschools.org/</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary link</t>
-        </is>
-      </c>
-      <c r="B3" s="20" t="inlineStr">
-        <is>
-          <t>4/10</t>
-        </is>
-      </c>
-      <c r="C3" s="22" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="19" t="inlineStr">
-        <is>
-          <t>school - middle name</t>
-        </is>
-      </c>
-      <c r="B4" s="20" t="inlineStr">
-        <is>
-          <t>Ocoee Middle School</t>
-        </is>
-      </c>
-      <c r="C4" s="22" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="19" t="inlineStr">
-        <is>
-          <t>school - middle link</t>
-        </is>
-      </c>
-      <c r="B5" s="20" t="inlineStr">
-        <is>
-          <t>4/10</t>
-        </is>
-      </c>
-      <c r="C5" s="22" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="19" t="inlineStr">
-        <is>
-          <t>school - high name</t>
-        </is>
-      </c>
-      <c r="B6" s="20" t="inlineStr">
-        <is>
-          <t>Ocoee High School</t>
-        </is>
-      </c>
-      <c r="C6" s="22" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="19" t="inlineStr">
-        <is>
-          <t>school - high link</t>
-        </is>
-      </c>
-      <c r="B7" s="20" t="inlineStr">
-        <is>
-          <t>4/10</t>
-        </is>
-      </c>
-      <c r="C7" s="22" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="18" t="inlineStr">
-        <is>
-          <t>School digger</t>
-        </is>
-      </c>
-      <c r="B8" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C8" s="18" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary name</t>
-        </is>
-      </c>
-      <c r="B9" s="20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C9" s="21" t="inlineStr">
-        <is>
-          <t>https://www.schooldigger.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary link</t>
-        </is>
-      </c>
-      <c r="B10" s="20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C10" s="22" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="19" t="inlineStr">
-        <is>
-          <t>school - middle name</t>
-        </is>
-      </c>
-      <c r="B11" s="20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C11" s="22" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="19" t="inlineStr">
-        <is>
-          <t>school - middle link</t>
-        </is>
-      </c>
-      <c r="B12" s="20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C12" s="22" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="19" t="inlineStr">
-        <is>
-          <t>school - high name</t>
-        </is>
-      </c>
-      <c r="B13" s="20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C13" s="22" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="19" t="inlineStr">
-        <is>
-          <t>school - high link</t>
-        </is>
-      </c>
-      <c r="B14" s="20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="C14" s="22" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Home Facts </t>
-        </is>
-      </c>
-      <c r="B15" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C15" s="18" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary name</t>
-        </is>
-      </c>
-      <c r="B16" s="20" t="inlineStr">
-        <is>
-          <t>Thornebrooke Elementary School</t>
-        </is>
-      </c>
-      <c r="C16" s="21" t="inlineStr">
-        <is>
-          <t>https://www.homefacts.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary link</t>
-        </is>
-      </c>
-      <c r="B17" s="20" t="inlineStr">
-        <is>
-          <t>text-center school_badges_big grade_big_A</t>
-        </is>
-      </c>
-      <c r="C17" s="22" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="19" t="inlineStr">
-        <is>
-          <t>school - middle name</t>
-        </is>
-      </c>
-      <c r="B18" s="20" t="inlineStr">
-        <is>
-          <t>Ocoee Middle School</t>
-        </is>
-      </c>
-      <c r="C18" s="22" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="19" t="inlineStr">
-        <is>
-          <t>school - middle link</t>
-        </is>
-      </c>
-      <c r="B19" s="20" t="inlineStr">
-        <is>
-          <t>text-center school_badges_big grade_big_C</t>
-        </is>
-      </c>
-      <c r="C19" s="22" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="19" t="inlineStr">
-        <is>
-          <t>school - high name</t>
-        </is>
-      </c>
-      <c r="B20" s="20" t="inlineStr">
-        <is>
-          <t>Legacy High Charter School</t>
-        </is>
-      </c>
-      <c r="C20" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="21" s="16">
-      <c r="A21" s="19" t="inlineStr">
-        <is>
-          <t>school - high link</t>
-        </is>
-      </c>
-      <c r="B21" s="20" t="inlineStr">
-        <is>
-          <t>text-center school_badges_big grade_big_A</t>
-        </is>
-      </c>
-      <c r="C21" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="18" r="22" s="16">
-      <c r="A22" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Niche </t>
-        </is>
-      </c>
-      <c r="B22" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C22" s="18" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="23" s="16">
-      <c r="A23" s="19" t="inlineStr">
-        <is>
-          <t>link - County Schools</t>
-        </is>
-      </c>
-      <c r="B23" s="24" t="inlineStr">
-        <is>
-          <t>Cant be activated at this moment , cant automate the searches ,have different xpaths all the time</t>
-        </is>
-      </c>
-      <c r="C23" s="21" t="inlineStr">
-        <is>
-          <t>https://www.niche.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="19" t="inlineStr">
-        <is>
-          <t>name - global</t>
-        </is>
-      </c>
-      <c r="B24" s="25" t="n"/>
-      <c r="C24" s="23" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">rank - School Districts </t>
-        </is>
-      </c>
-      <c r="B25" s="25" t="n"/>
-      <c r="C25" s="21" t="inlineStr">
-        <is>
-          <t>https://www.niche.com/k12/d/henry-county-schools-ga/</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="19" t="inlineStr">
-        <is>
-          <t>grade - overall niche grade</t>
-        </is>
-      </c>
-      <c r="B26" s="25" t="n"/>
-      <c r="C26" s="22" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="19" t="inlineStr">
-        <is>
-          <t>link - all ranks state county schools/metropolitan/national</t>
-        </is>
-      </c>
-      <c r="B27" s="26" t="n"/>
-      <c r="C27" s="22" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="18" t="inlineStr">
-        <is>
-          <t>Info</t>
-        </is>
-      </c>
-      <c r="B28" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C28" s="18" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="19" t="inlineStr">
-        <is>
-          <t>Street</t>
-        </is>
-      </c>
-      <c r="B29" s="22" t="inlineStr">
-        <is>
-          <t>1618 Lake Sims Parkway</t>
-        </is>
-      </c>
-      <c r="C29" s="22" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="19" t="inlineStr">
-        <is>
-          <t>City</t>
-        </is>
-      </c>
-      <c r="B30" s="22" t="inlineStr">
-        <is>
-          <t>Ocoee</t>
-        </is>
-      </c>
-      <c r="C30" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="31" s="16">
-      <c r="A31" s="22" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="B31" s="22" t="inlineStr">
-        <is>
-          <t>Florida</t>
-        </is>
-      </c>
-      <c r="C31" s="22" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B23:B27"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C9" r:id="rId2"/>
-    <hyperlink ref="C16" r:id="rId3"/>
-    <hyperlink ref="C23" r:id="rId4"/>
-    <hyperlink ref="C25" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="16" width="50.83203125"/>
-    <col customWidth="1" max="2" min="2" style="16" width="123.6640625"/>
-    <col customWidth="1" max="3" min="3" style="16" width="53.1640625"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>Greatschools</t>
-        </is>
-      </c>
-      <c r="B1" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C1" s="18" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary name</t>
-        </is>
-      </c>
-      <c r="B2" s="20" t="inlineStr">
-        <is>
-          <t>Walnut Creek Elementary School</t>
-        </is>
-      </c>
-      <c r="C2" s="21" t="inlineStr">
-        <is>
-          <t>https://www.greatschools.org/</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary link</t>
-        </is>
-      </c>
-      <c r="B3" s="20" t="inlineStr">
-        <is>
-          <t>3/10</t>
-        </is>
-      </c>
-      <c r="C3" s="22" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="19" t="inlineStr">
-        <is>
-          <t>school - middle name</t>
-        </is>
-      </c>
-      <c r="B4" s="20" t="inlineStr">
-        <is>
-          <t>Union Grove Middle School</t>
-        </is>
-      </c>
-      <c r="C4" s="22" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="19" t="inlineStr">
-        <is>
-          <t>school - middle link</t>
-        </is>
-      </c>
-      <c r="B5" s="20" t="inlineStr">
-        <is>
-          <t>6/10</t>
-        </is>
-      </c>
-      <c r="C5" s="22" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="19" t="inlineStr">
-        <is>
-          <t>school - high name</t>
-        </is>
-      </c>
-      <c r="B6" s="20" t="inlineStr">
-        <is>
-          <t>Union Grove High School</t>
-        </is>
-      </c>
-      <c r="C6" s="22" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="19" t="inlineStr">
-        <is>
-          <t>school - high link</t>
-        </is>
-      </c>
-      <c r="B7" s="20" t="inlineStr">
-        <is>
-          <t>7/10</t>
-        </is>
-      </c>
-      <c r="C7" s="22" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="18" t="inlineStr">
-        <is>
-          <t>School digger</t>
-        </is>
-      </c>
-      <c r="B8" s="18" t="inlineStr">
-        <is>
-          <t>Links</t>
-        </is>
-      </c>
-      <c r="C8" s="18" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary name</t>
-        </is>
-      </c>
-      <c r="B9" s="20" t="inlineStr">
-        <is>
-          <t>Walnut Creek Elementary</t>
-        </is>
-      </c>
-      <c r="C9" s="21" t="inlineStr">
-        <is>
-          <t>https://www.schooldigger.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>school - elementary link</t>
-        </is>
-      </c>
-      <c r="B10" s="20" t="inlineStr">
-        <is>
-          <t>https://www.schooldigger.com/go/GA/schools/0282003413/school.aspx</t>
-        </is>
-      </c>
-      <c r="C10" s="22" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="19" t="inlineStr">
-        <is>
-          <t>school - middle name</t>
-        </is>
-      </c>
-      <c r="B11" s="20" t="inlineStr">
-        <is>
-          <t>Henry County Middle School</t>
-        </is>
-      </c>
-      <c r="C11" s="22" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="19" t="inlineStr">
-        <is>
-          <t>school - middle link</t>
-        </is>
-      </c>
-      <c r="B12" s="20" t="inlineStr">
-        <is>
-          <t>https://www.schooldigger.com/go/GA/schools/0282001206/school.aspx</t>
-        </is>
-      </c>
-      <c r="C12" s="22" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="19" t="inlineStr">
-        <is>
-          <t>school - high name</t>
-        </is>
-      </c>
-      <c r="B13" s="20" t="inlineStr">
-        <is>
-          <t>Henry County High School</t>
+          <t>McDonough High School</t>
         </is>
       </c>
       <c r="C13" s="22" t="n"/>
